--- a/week2 table.xlsx
+++ b/week2 table.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FATBO\uni Edi\2023 sem3\Dissertation\Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F01B2D-691E-4B82-8809-BCD9D1505E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E5C4BE-73F4-41AC-A5DF-51C78F246552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,18 @@
   </si>
   <si>
     <t>Finish Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1 total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2 total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redundancy Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,7 +953,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" ref="A13:A15" si="1">MIN(B13,E13,H13,K13)</f>
+        <f t="shared" ref="A14:A15" si="1">MIN(B13,E13,H13,K13)</f>
         <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1084,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <f>C20+D20+E20</f>
+        <f t="shared" ref="B20:B30" si="2">C20+D20+E20</f>
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -1097,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f>G20+H20+I20</f>
+        <f t="shared" ref="F20:F30" si="3">G20+H20+I20</f>
         <v>0</v>
       </c>
       <c r="G20" s="1">
@@ -1116,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1">
-        <f>C21+D21+E21</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -1129,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
-        <f>G21+H21+I21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
@@ -1148,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <f>C22+D22+E22</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C22" s="1">
@@ -1161,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1">
-        <f>G22+H22+I22</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="G22" s="1">
@@ -1181,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <f>C23+D23+E23</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C23" s="1">
@@ -1194,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="1">
-        <f>G23+H23+I23</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="G23" s="1">
@@ -1215,7 +1232,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="1">
-        <f>C24+D24+E24</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C24" s="1">
@@ -1228,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f>G24+H24+I24</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="G24" s="1">
@@ -1249,7 +1266,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="1">
-        <f>C25+D25+E25</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C25" s="1">
@@ -1262,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1">
-        <f>G25+H25+I25</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="G25" s="1">
@@ -1283,7 +1300,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="1">
-        <f>C26+D26+E26</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C26" s="1">
@@ -1296,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="1">
-        <f>G26+H26+I26</f>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="G26" s="1">
@@ -1316,7 +1333,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1">
-        <f>C27+D27+E27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -1329,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <f>G27+H27+I27</f>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="G27" s="1">
@@ -1350,7 +1367,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="1">
-        <f>C28+D28+E28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C28" s="1">
@@ -1363,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <f>G28+H28+I28</f>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="G28" s="1">
@@ -1385,7 +1402,7 @@
         <v>55</v>
       </c>
       <c r="B29" s="1">
-        <f>C29+D29+E29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C29" s="1">
@@ -1398,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f>G29+H29+I29</f>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="G29" s="1">
@@ -1420,7 +1437,7 @@
         <v>60</v>
       </c>
       <c r="B30" s="1">
-        <f>C30+D30+E30</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C30" s="1">
@@ -1433,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <f>G30+H30+I30</f>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="G30" s="1">
@@ -1472,4 +1489,907 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>MIN(B3,C3,E3,I3,L3)</f>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A13" si="0">MIN(B4,C4,E4,I4,L4)</f>
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f>A5+15</f>
+        <v>38</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f>A9+12</f>
+        <v>55</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B10" s="1">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f>A11+25</f>
+        <v>77</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>77</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f>MIN(B20,C20,E20,I20,L20)</f>
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="4"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" ref="A22:A30" si="1">MIN(B21,C21,E21,I21,L21)</f>
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <f>A22+15</f>
+        <v>38</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="4"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>38</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="4"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f>A26+12</f>
+        <v>55</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="1">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B28" s="1">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <f>A28+25</f>
+        <v>77</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B29" s="1">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>77</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A18:K18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/week2 table.xlsx
+++ b/week2 table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E5C4BE-73F4-41AC-A5DF-51C78F246552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959BF191-8447-4575-8ED5-58AF25AC9281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Redundancy Event Calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,8 +1508,9 @@
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
@@ -1993,12 +1998,12 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2008,364 +2013,147 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f>MIN(B20,C20,E20,I20,L20)</f>
         <v>10</v>
       </c>
-      <c r="B21" s="1">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="4"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" ref="A22:A30" si="1">MIN(B21,C21,E21,I21,L21)</f>
         <v>23</v>
       </c>
-      <c r="B22" s="1">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <f>A22+15</f>
-        <v>38</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="4"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B23" s="1">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1">
-        <v>60</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>38</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="4"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B24" s="1">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>38</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="4"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B25" s="1">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="4"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B26" s="1">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1">
-        <v>60</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <f>A26+12</f>
-        <v>55</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="4"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B27" s="1">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>55</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="4"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B28" s="1">
-        <v>67</v>
-      </c>
-      <c r="C28" s="1">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>55</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <f>A28+25</f>
-        <v>77</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="4"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B29" s="1">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>77</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="4"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>77</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="4"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2386,7 +2174,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week2 table.xlsx
+++ b/week2 table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959BF191-8447-4575-8ED5-58AF25AC9281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB63B9-DFA9-43A1-879B-25CF739B6C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,34 @@
   </si>
   <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +193,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -197,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,10 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,30 +1533,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A38" activeCellId="5" sqref="L4:XFD4 A34:XFD34 A35:XFD35 A36:XFD36 A37:XFD37 A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1574,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1571,11 +1608,8 @@
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1609,11 +1643,8 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>MIN(B3,C3,E3,I3,L3)</f>
         <v>10</v>
@@ -1630,21 +1661,14 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A13" si="0">MIN(B4,C4,E4,I4,L4)</f>
         <v>23</v>
@@ -1661,8 +1685,6 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="2">
         <v>1</v>
       </c>
@@ -1670,13 +1692,8 @@
         <f>A5+15</f>
         <v>38</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1693,21 +1710,14 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>38</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1724,21 +1734,14 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>38</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1755,21 +1758,14 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1787,21 +1783,14 @@
         <f>A9+12</f>
         <v>55</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1818,21 +1807,14 @@
       <c r="E10" s="1">
         <v>55</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1849,8 +1831,6 @@
       <c r="E11" s="1">
         <v>55</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="2">
         <v>1</v>
       </c>
@@ -1858,13 +1838,8 @@
         <f>A11+25</f>
         <v>77</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1881,21 +1856,14 @@
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>77</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1912,85 +1880,14 @@
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>77</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1998,17 +1895,8 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2024,10 +1912,8 @@
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2043,133 +1929,96 @@
       <c r="E20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="4"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>27</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>38</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>52</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="4"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>52</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="4"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>55</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="4"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>60</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="4"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/week2 table.xlsx
+++ b/week2 table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB63B9-DFA9-43A1-879B-25CF739B6C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6095E8-E0BB-4B1C-AE4A-A53FA4EDEC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyhistory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,10 +246,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,20 +555,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1090,21 +1094,21 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1533,15 +1537,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EEAAE-6B1F-4650-BB37-3763FADA90B1}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A38" activeCellId="5" sqref="L4:XFD4 A34:XFD34 A35:XFD35 A36:XFD36 A37:XFD37 A38:XFD38"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
@@ -1558,21 +1562,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1888,13 +1892,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2013,11 +2017,16 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/week2 table.xlsx
+++ b/week2 table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liyao\Documents\UoE_Msc_Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6095E8-E0BB-4B1C-AE4A-A53FA4EDEC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB87784-A0E8-4D7F-802B-DC81A0A9FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>Event Calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,10 +176,6 @@
   </si>
   <si>
     <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>copyhistory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,7 +1536,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="A39" activeCellId="7" sqref="J8:XFD8 H8 A34:XFD34 A35:XFD35 A36:XFD36 A37:XFD37 A38:XFD38 A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2025,8 +2021,8 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
+      <c r="A39" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
